--- a/common/导入用例模板.xlsx
+++ b/common/导入用例模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>中文解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,15 +379,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -403,9 +407,12 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
